--- a/experiment results/Experiment Data.xlsx
+++ b/experiment results/Experiment Data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F6D81-0A24-4FE5-8DF1-BEF8756B9436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
@@ -92,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -273,7 +272,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -311,7 +310,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,23 +345,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -398,26 +380,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1692,7 +1657,7 @@
       <c r="A43" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H36">
+  <sortState ref="A5:H36">
     <sortCondition ref="H5:H36"/>
   </sortState>
   <mergeCells count="1">
@@ -1704,7 +1669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2721,7 +2686,7 @@
       <c r="F39" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G36">
+  <sortState ref="A5:G36">
     <sortCondition ref="G5:G36"/>
   </sortState>
   <mergeCells count="1">
@@ -2733,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3736,7 +3701,7 @@
       <c r="F39" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G36">
+  <sortState ref="A5:G36">
     <sortCondition ref="G5:G36"/>
   </sortState>
   <mergeCells count="1">
@@ -3748,11 +3713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22:V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
